--- a/server/questions.xlsx
+++ b/server/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htanphuc/Documents/GitHub/Game-1/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37FD53-BD9C-F94E-9371-70F598BB5049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359EDA0-9871-4D4D-9FE1-26A76658F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,30 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>question</t>
   </si>
@@ -180,6 +158,18 @@
   </si>
   <si>
     <t>&lt;p&gt;Which planet is known as the "Red Planet"?&lt;/p&gt; &lt;img src="/cc25.jpg" width=50 alt="coding-challenge" /&gt;</t>
+  </si>
+  <si>
+    <t>Picture1</t>
+  </si>
+  <si>
+    <t>Picture2</t>
+  </si>
+  <si>
+    <t>Picture3</t>
+  </si>
+  <si>
+    <t>Picture4</t>
   </si>
 </sst>
 </file>
@@ -258,70 +248,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,11 +539,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="212" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -703,8 +634,8 @@
       <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="N2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -735,8 +666,8 @@
       <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="N3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -779,8 +710,8 @@
       <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="N4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -811,8 +742,8 @@
       <c r="M5" t="s">
         <v>37</v>
       </c>
-      <c r="N5" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="N5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/server/questions.xlsx
+++ b/server/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htanphuc/Documents/GitHub/Game-1/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359EDA0-9871-4D4D-9FE1-26A76658F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E4DD7-CD9F-DF48-A19D-D5C0B58D5353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>question</t>
   </si>
@@ -28,18 +28,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>option4</t>
-  </si>
-  <si>
     <t>answer</t>
   </si>
   <si>
@@ -55,33 +43,12 @@
     <t>hint4</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Leonardo da Vinci</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Vincent van Gogh</t>
-  </si>
-  <si>
     <t>Paris</t>
   </si>
   <si>
     <t>Michelangelo</t>
   </si>
   <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Raphael</t>
-  </si>
-  <si>
     <t>Au</t>
   </si>
   <si>
@@ -139,9 +106,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>multiple-choice</t>
-  </si>
-  <si>
     <t>short-phrase</t>
   </si>
   <si>
@@ -158,18 +122,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Which planet is known as the "Red Planet"?&lt;/p&gt; &lt;img src="/cc25.jpg" width=50 alt="coding-challenge" /&gt;</t>
-  </si>
-  <si>
-    <t>Picture1</t>
-  </si>
-  <si>
-    <t>Picture2</t>
-  </si>
-  <si>
-    <t>Picture3</t>
-  </si>
-  <si>
-    <t>Picture4</t>
   </si>
 </sst>
 </file>
@@ -539,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="212" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="212" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,10 +504,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -578,64 +530,35 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -643,31 +566,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -675,43 +595,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -719,31 +624,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
